--- a/src/documents/2019/serverless-at-scale-serving-stackoverflow-like-traffic/GcpAwsAzureHttp.xlsx
+++ b/src/documents/2019/serverless-at-scale-serving-stackoverflow-like-traffic/GcpAwsAzureHttp.xlsx
@@ -1444,12 +1444,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="651172496"/>
-        <c:axId val="651172888"/>
+        <c:axId val="248707576"/>
+        <c:axId val="248707968"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="651172496"/>
+        <c:axId val="248707576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651172888"/>
+        <c:crossAx val="248707968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="651172888"/>
+        <c:axId val="248707968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651172496"/>
+        <c:crossAx val="248707576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,53 +1806,56 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1933,8 +1936,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="406721296"/>
-        <c:axId val="406720904"/>
+        <c:axId val="248709928"/>
+        <c:axId val="248709536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2056,25 +2059,25 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AWS HTTP'!$I$1</c:f>
+              <c:f>'AWS HTTP'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P99.9</c:v>
+                  <c:v>P50</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2084,62 +2087,433 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'AWS HTTP'!$I$3:$I$19</c:f>
+              <c:f>'AWS HTTP'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1145</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4447</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1381</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1599</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4254</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1154</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>637</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>724</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1084</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1031</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2657</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2494</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1713.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>889</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1132</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>946</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>912</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AWS HTTP'!$E$3:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.389830508474503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.080952380952297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.2395833333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.888095238095204</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.236666666666594</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E53-4812-845A-C55C21712257}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AWS HTTP'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P90</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AWS HTTP'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AWS HTTP'!$F$3:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>127.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.37838218887501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.60371513893401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.29782903663499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126.968671760338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.468627216011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124.961887254901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124.663440033033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122.42246887725599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124.170959653521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126.31267047117301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122.830935251798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121.98398919752999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.211077874314</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126.987849548825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DBE-4CA7-997E-42DD6195D990}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AWS HTTP'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P95</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AWS HTTP'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AWS HTTP'!$G$3:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>154.91547987616099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.85299936988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.79197133068701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.60507936507901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155.80909828276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.45018181818099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.5478546569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.96661193212901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147.09884974838201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149.57086354647299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>151.95200421940899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>146.70292941936501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>146.05327144120201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.14340828924099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143.096816114359</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>152.999598997493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,8 +2530,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="651173672"/>
-        <c:axId val="406720512"/>
+        <c:axId val="248708752"/>
+        <c:axId val="248709144"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2198,60 +2572,63 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$A$3:$A$20</c15:sqref>
+                          <c15:sqref>'AWS HTTP'!$A$3:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="18"/>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2261,59 +2638,59 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$A$3:$A$19</c15:sqref>
+                          <c15:sqref>'AWS HTTP'!$A$3:$A$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="17"/>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
                         <c:v>16</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2325,507 +2702,6 @@
                     <c16:uniqueId val="{00000000-9E53-4812-845A-C55C21712257}"/>
                   </c:ext>
                 </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>P50</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="44450" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$A$3:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="18"/>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$E$4:$E$19</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>73.389830508474503</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>73.080952380952297</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>73.2395833333333</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>71.888095238095204</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>71.236666666666594</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>71</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-9E53-4812-845A-C55C21712257}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>P90</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="44450" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$A$3:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="18"/>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$F$4:$F$19</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>128.37838218887501</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>136.60371513893401</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>127.29782903663499</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>126.968671760338</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>127.468627216011</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>124.961887254901</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>124.663440033033</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>122.42246887725599</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>124.170959653521</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>126.31267047117301</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>122.830935251798</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>123</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>123</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>121.98398919752999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>119.211077874314</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>126.987849548825</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-9DBE-4CA7-997E-42DD6195D990}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>P95</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="38100" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                        <a:lumOff val="40000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$A$3:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="18"/>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$G$4:$G$19</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>155.85299936988</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>178.79197133068701</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>156.60507936507901</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>155.80909828276</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>159.45018181818099</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>151.5478546569</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>151.96661193212901</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>147.09884974838201</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>149.57086354647299</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>151.95200421940899</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>146.70292941936501</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>146.05327144120201</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>144.14340828924099</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>143.096816114359</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>140.9</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>152.999598997493</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -2866,63 +2742,66 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AWS HTTP'!$A$3:$A$20</c15:sqref>
+                          <c15:sqref>'AWS HTTP'!$A$3:$A$19</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="18"/>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2993,11 +2872,182 @@
                 <c:smooth val="0"/>
               </c15:ser>
             </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'AWS HTTP'!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>P99.9</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="38100" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="40000"/>
+                        <a:lumOff val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'AWS HTTP'!$A$3:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'AWS HTTP'!$I$3:$I$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>1145</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4447</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1381</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1599</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4254</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1154</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>637</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>724</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1084</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1031</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2657</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2494</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1713.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>889</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1132</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>946</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>912</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="651173672"/>
+        <c:axId val="248708752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,6 +3079,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3095,7 +3146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406720512"/>
+        <c:crossAx val="248709144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3103,7 +3154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406720512"/>
+        <c:axId val="248709144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,6 +3200,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3209,15 +3261,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651173672"/>
+        <c:crossAx val="248708752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406720904"/>
+        <c:axId val="248709536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,6 +3306,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3313,12 +3367,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406721296"/>
+        <c:crossAx val="248709928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="406721296"/>
+        <c:axId val="248709928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406720904"/>
+        <c:crossAx val="248709536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3345,6 +3399,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3476,53 +3531,56 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -3603,8 +3661,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="406723256"/>
-        <c:axId val="406722864"/>
+        <c:axId val="248711888"/>
+        <c:axId val="248711496"/>
         <c:extLst/>
       </c:barChart>
       <c:lineChart>
@@ -3733,8 +3791,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="406722080"/>
-        <c:axId val="406722472"/>
+        <c:axId val="248710712"/>
+        <c:axId val="248711104"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3794,53 +3852,56 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3857,53 +3918,56 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3975,53 +4039,56 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4151,53 +4218,56 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4330,53 +4400,56 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4508,53 +4581,56 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>8</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>9</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11</c:v>
+                        <c:v>12</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>12</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>13</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>14</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>15</c:v>
+                        <c:v>16</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>16</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4741,7 +4817,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="406722080"/>
+        <c:axId val="248710712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,6 +4849,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4839,7 +4916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406722472"/>
+        <c:crossAx val="248711104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4847,7 +4924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406722472"/>
+        <c:axId val="248711104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4898,6 +4975,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4958,12 +5036,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406722080"/>
+        <c:crossAx val="248710712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406722864"/>
+        <c:axId val="248711496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4999,6 +5077,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5059,12 +5138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406723256"/>
+        <c:crossAx val="248711888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="406723256"/>
+        <c:axId val="248711888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,7 +5153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406722864"/>
+        <c:crossAx val="248711496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5091,6 +5170,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5348,32 +5428,32 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183359824"/>
-        <c:axId val="183359432"/>
+        <c:axId val="248713848"/>
+        <c:axId val="248713456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'GCP HTTP'!$I$1</c:f>
+              <c:f>'GCP HTTP'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P99.9</c:v>
+                  <c:v>P50</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5383,61 +5463,286 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GCP HTTP'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'GCP HTTP'!$I$4:$I$18</c:f>
+              <c:f>'GCP HTTP'!$E$4:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1153</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1146</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2476</c:v>
+                  <c:v>149.574380165289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4754</c:v>
+                  <c:v>146.08641975308601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2691</c:v>
+                  <c:v>144.79754601226901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2352</c:v>
+                  <c:v>142.31630170316299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1621</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1186</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1180.5</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1170</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4524</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1163</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1162</c:v>
+                  <c:v>131.47490347490299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2624</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2510</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E53-4812-845A-C55C21712257}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GCP HTTP'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P90</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GCP HTTP'!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GCP HTTP'!$F$4:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>373.413759300729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225.84064337609499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214.42303072697501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.02352175754001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206.36603083262199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197.65815161853399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201.65672646675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186.61509945034399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196.46269983269801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>178.67783095967101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178.59228937997801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.59096003519201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176.95473911123401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>179.798910766652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>189.242294372294</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DBE-4CA7-997E-42DD6195D990}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5449,8 +5754,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="406724040"/>
-        <c:axId val="183359040"/>
+        <c:axId val="248712672"/>
+        <c:axId val="248713064"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5762,350 +6067,6 @@
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'GCP HTTP'!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>P50</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="44450" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'GCP HTTP'!$A$3:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="18"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'GCP HTTP'!$E$4:$E$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                      <c:pt idx="0">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>149.574380165289</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>146.08641975308601</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>144.79754601226901</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>142.31630170316299</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>143</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>141</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>137</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>134</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>131</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>131.47490347490299</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>132</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>133</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-9E53-4812-845A-C55C21712257}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'GCP HTTP'!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>P90</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="44450" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'GCP HTTP'!$A$3:$A$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="18"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'GCP HTTP'!$F$4:$F$18</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                      <c:pt idx="0">
-                        <c:v>373.413759300729</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>225.84064337609499</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>214.42303072697501</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>201.02352175754001</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>206.36603083262199</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>197.65815161853399</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>201.65672646675</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>186.61509945034399</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>196.46269983269801</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>178.67783095967101</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>178.59228937997801</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>171.59096003519201</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>176.95473911123401</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>179.798910766652</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>189.242294372294</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-9DBE-4CA7-997E-42DD6195D990}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
                 <c:tx>
@@ -6440,11 +6401,110 @@
                 <c:smooth val="0"/>
               </c15:ser>
             </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'GCP HTTP'!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>P99.9</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="40000"/>
+                        <a:lumOff val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'GCP HTTP'!$I$4:$I$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1153</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1146</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2476</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4754</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2691</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2352</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1621</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1186</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1180.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1170</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4524</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1163</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1162</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2624</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2510</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="406724040"/>
+        <c:axId val="248712672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6476,6 +6536,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6542,7 +6603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183359040"/>
+        <c:crossAx val="248713064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6550,7 +6611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183359040"/>
+        <c:axId val="248713064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6596,6 +6657,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6656,7 +6718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406724040"/>
+        <c:crossAx val="248712672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6664,7 +6726,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183359432"/>
+        <c:axId val="248713456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6701,6 +6763,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6761,12 +6824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183359824"/>
+        <c:crossAx val="248713848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="183359824"/>
+        <c:axId val="248713848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6776,7 +6839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183359432"/>
+        <c:crossAx val="248713456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6793,6 +6856,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7050,8 +7114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183362176"/>
-        <c:axId val="183361784"/>
+        <c:axId val="249944616"/>
+        <c:axId val="249944224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7167,8 +7231,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183361000"/>
-        <c:axId val="183361392"/>
+        <c:axId val="248714632"/>
+        <c:axId val="248715024"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -8145,7 +8209,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183361000"/>
+        <c:axId val="248714632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8177,6 +8241,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8243,7 +8308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183361392"/>
+        <c:crossAx val="248715024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8251,7 +8316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183361392"/>
+        <c:axId val="248715024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8297,6 +8362,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8357,12 +8423,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183361000"/>
+        <c:crossAx val="248714632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183361784"/>
+        <c:axId val="249944224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8399,6 +8465,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8459,12 +8526,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183362176"/>
+        <c:crossAx val="249944616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="183362176"/>
+        <c:axId val="249944616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8474,7 +8541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183361784"/>
+        <c:crossAx val="249944224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8491,6 +8558,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8747,8 +8815,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468956312"/>
-        <c:axId val="468955920"/>
+        <c:axId val="249946576"/>
+        <c:axId val="249946184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9216,8 +9284,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468955136"/>
-        <c:axId val="468955528"/>
+        <c:axId val="249945400"/>
+        <c:axId val="249945792"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -9798,7 +9866,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468955136"/>
+        <c:axId val="249945400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9830,7 +9898,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9897,7 +9964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468955528"/>
+        <c:crossAx val="249945792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9905,7 +9972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468955528"/>
+        <c:axId val="249945792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9951,7 +10018,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10012,7 +10078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468955136"/>
+        <c:crossAx val="249945400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -10020,7 +10086,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468955920"/>
+        <c:axId val="249946184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10057,7 +10123,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10118,12 +10183,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468956312"/>
+        <c:crossAx val="249946576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468956312"/>
+        <c:axId val="249946576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10133,7 +10198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468955920"/>
+        <c:crossAx val="249946184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10150,7 +10215,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10407,8 +10471,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468958272"/>
-        <c:axId val="468957880"/>
+        <c:axId val="249948536"/>
+        <c:axId val="249948144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10522,8 +10586,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468957096"/>
-        <c:axId val="468957488"/>
+        <c:axId val="249947360"/>
+        <c:axId val="249947752"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -11500,7 +11564,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468957096"/>
+        <c:axId val="249947360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11532,7 +11596,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11599,7 +11662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468957488"/>
+        <c:crossAx val="249947752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11607,7 +11670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468957488"/>
+        <c:axId val="249947752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11653,7 +11716,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11714,12 +11776,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468957096"/>
+        <c:crossAx val="249947360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468957880"/>
+        <c:axId val="249948144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11756,7 +11818,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11817,12 +11878,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468958272"/>
+        <c:crossAx val="249948536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468958272"/>
+        <c:axId val="249948536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11832,7 +11893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468957880"/>
+        <c:crossAx val="249948144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11849,7 +11910,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12106,8 +12166,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="641669456"/>
-        <c:axId val="641669064"/>
+        <c:axId val="249950888"/>
+        <c:axId val="249950496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12575,8 +12635,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183360608"/>
-        <c:axId val="641668672"/>
+        <c:axId val="249949712"/>
+        <c:axId val="249950104"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -13157,7 +13217,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183360608"/>
+        <c:axId val="249949712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13189,7 +13249,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13256,7 +13315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641668672"/>
+        <c:crossAx val="249950104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13264,7 +13323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="641668672"/>
+        <c:axId val="249950104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13310,7 +13369,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13371,7 +13429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183360608"/>
+        <c:crossAx val="249949712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -13379,7 +13437,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="641669064"/>
+        <c:axId val="249950496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13416,7 +13474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13477,12 +13534,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641669456"/>
+        <c:crossAx val="249950888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="641669456"/>
+        <c:axId val="249950888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13492,7 +13549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641669064"/>
+        <c:crossAx val="249950496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13509,7 +13566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13766,8 +13822,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="641671416"/>
-        <c:axId val="641671024"/>
+        <c:axId val="250908048"/>
+        <c:axId val="250907656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13881,8 +13937,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="641670240"/>
-        <c:axId val="641670632"/>
+        <c:axId val="249951672"/>
+        <c:axId val="250907264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -14859,7 +14915,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="641670240"/>
+        <c:axId val="249951672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14891,7 +14947,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14958,7 +15013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641670632"/>
+        <c:crossAx val="250907264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14966,7 +15021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="641670632"/>
+        <c:axId val="250907264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15012,7 +15067,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15073,12 +15127,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641670240"/>
+        <c:crossAx val="249951672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="641671024"/>
+        <c:axId val="250907656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15115,7 +15169,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15176,12 +15229,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641671416"/>
+        <c:crossAx val="250908048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="641671416"/>
+        <c:axId val="250908048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15191,7 +15244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641671024"/>
+        <c:crossAx val="250907656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15208,7 +15261,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20300,12 +20352,12 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>488832</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>55297</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -20319,7 +20371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13290432" cy="4993057"/>
+          <a:ext cx="13290432" cy="4663844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21937,7 +21989,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22002,6 +22054,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>11971</v>
       </c>
@@ -22030,7 +22085,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>17967</v>
@@ -22060,7 +22115,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>23959</v>
@@ -22090,7 +22145,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>29953</v>
@@ -22120,7 +22175,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>35999</v>
@@ -22150,7 +22205,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>41954</v>
@@ -22180,7 +22235,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>47989</v>
@@ -22210,7 +22265,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>53903</v>
@@ -22240,7 +22295,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>59924</v>
@@ -22270,7 +22325,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>53914</v>
@@ -22300,7 +22355,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>47911</v>
@@ -22330,7 +22385,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>41943</v>
@@ -22360,7 +22415,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>35913</v>
@@ -22390,7 +22445,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>29934</v>
@@ -22420,7 +22475,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>23904</v>
@@ -22450,7 +22505,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>17939</v>
@@ -22480,7 +22535,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>11955</v>
@@ -22519,7 +22574,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
